--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T12:27:31+00:00</t>
+    <t>2021-11-24T13:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Basisprofil for Norwegian AppointmentResponse information. Defined by HL7 Norway. Should be used as a basis for further profiling in use-cases where specific appointment respons information is needed. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -436,8 +439,11 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-AppointmentResponse/ShortNotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/shortnotice}
 </t>
+  </si>
+  <si>
+    <t>Pasient can come on short notice.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -889,66 +895,68 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1011,2162 +1019,2162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:32:15+00:00</t>
+    <t>2021-11-25T06:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T06:07:33+00:00</t>
+    <t>2021-11-25T07:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="229">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T07:05:56+00:00</t>
+    <t>2021-11-25T08:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -450,21 +450,79 @@
 </t>
   </si>
   <si>
-    <t>AppointmentResponse.modifierExtension</t>
+    <t>AppointmentResponse.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -590,9 +648,6 @@
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>AppointmentResponse.actor</t>
@@ -966,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -975,7 +1030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1002,7 +1057,7 @@
     <col min="25" max="25" width="50.9453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.1953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2163,39 +2218,35 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2243,25 +2294,25 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2275,11 +2326,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2295,18 +2346,20 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2343,19 +2396,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2367,19 +2420,19 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>74</v>
@@ -2387,7 +2440,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2407,25 +2460,27 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2467,7 +2522,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>84</v>
@@ -2479,13 +2534,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2499,7 +2554,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2522,17 +2577,15 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2581,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2596,16 +2649,16 @@
         <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2613,39 +2666,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2693,31 +2750,31 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -2725,7 +2782,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2748,17 +2805,15 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2783,13 +2838,13 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -2807,7 +2862,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2822,16 +2877,16 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -2839,7 +2894,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2847,7 +2902,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>84</v>
@@ -2862,13 +2917,13 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2919,10 +2974,10 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
@@ -2934,24 +2989,24 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2959,7 +3014,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
@@ -2968,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3009,13 +3064,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3033,10 +3088,10 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -3048,16 +3103,16 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3065,7 +3120,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3088,17 +3143,15 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3147,7 +3200,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3162,18 +3215,472 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T08:52:25+00:00</t>
+    <t>2021-11-25T21:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T21:16:57+00:00</t>
+    <t>2021-12-15T08:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T08:30:53+00:00</t>
+    <t>2021-12-15T12:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:34:15+00:00</t>
+    <t>2021-12-15T12:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T12:39:33+00:00</t>
+    <t>2021-12-15T13:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T13:42:09+00:00</t>
+    <t>2021-12-16T21:16:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T21:16:53+00:00</t>
+    <t>2021-12-17T09:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:07:58+00:00</t>
+    <t>2021-12-17T09:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:19:31+00:00</t>
+    <t>2021-12-17T12:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T12:06:07+00:00</t>
+    <t>2022-01-10T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T12:40:13+00:00</t>
+    <t>2022-01-11T09:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:12:02+00:00</t>
+    <t>2022-01-17T12:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T12:49:07+00:00</t>
+    <t>2022-02-09T19:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-09T19:12:46+00:00</t>
+    <t>2022-02-16T10:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="236">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T10:05:43+00:00</t>
+    <t>2023-04-28T21:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,6 +117,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -246,16 +249,16 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection</t>
   </si>
   <si>
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
-    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -272,187 +275,197 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice</t>
+  </si>
+  <si>
+    <t>shortNotice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice}
+</t>
+  </si>
+  <si>
+    <t>Pasient can come on short notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.id</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>shortNotice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice}
-</t>
-  </si>
-  <si>
-    <t>Pasient can come on short notice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -463,6 +476,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.extension</t>
   </si>
   <si>
     <t>AppointmentResponse.extension.extension</t>
@@ -487,6 +503,9 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>AppointmentResponse.extension:shortNotice.url</t>
+  </si>
+  <si>
     <t>AppointmentResponse.extension.url</t>
   </si>
   <si>
@@ -503,6 +522,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.value[x]</t>
   </si>
   <si>
     <t>AppointmentResponse.extension.value[x]</t>
@@ -1021,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1030,46 +1052,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.92578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="40.91796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.1953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.94921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="100.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="107.08984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="100.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.08984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1193,105 +1215,108 @@
       <c r="AN1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>81</v>
@@ -1300,35 +1325,38 @@
         <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>86</v>
@@ -1342,110 +1370,113 @@
       <c r="M3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>93</v>
@@ -1453,111 +1484,114 @@
       <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -1568,110 +1602,113 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1682,31 +1719,31 @@
       <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>109</v>
@@ -1715,77 +1752,80 @@
         <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>115</v>
@@ -1796,110 +1836,113 @@
       <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>123</v>
@@ -1910,110 +1953,113 @@
       <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>130</v>
@@ -2021,1667 +2067,1712 @@
       <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="AH22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="236">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:16:27+00:00</t>
+    <t>2024-05-29T11:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Basisprofil for Norwegian AppointmentResponse information. Defined by HL7 Norway. Should be used as a basis for further profiling in use-cases where specific appointment respons information is needed. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
+    <t>Basisprofil for Norwegian AppointmentResponse information. Defined by HL7 Norway. Should be used as a basis for further profiling in use-cases where specific appointment respons information is needed. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to each use-case.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,6 +259,10 @@
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
+    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -445,11 +449,11 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
-    <t>Pasient can come on short notice.</t>
+    <t>Patient can come on short notice.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -484,67 +488,64 @@
     <t>AppointmentResponse.extension.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.value[x]</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Patient can come on short notice. Response is boolean</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.url</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/structuredefinition/no-basis-appointmentresponse/no-basis-shortnotice</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.value[x]</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -870,10 +871,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1063,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1316,16 +1317,16 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
@@ -1336,10 +1337,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1350,7 +1351,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1359,19 +1360,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1421,13 +1422,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1453,10 +1454,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1467,7 +1468,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1476,16 +1477,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1536,19 +1537,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1568,10 +1569,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1582,28 +1583,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1653,19 +1654,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1685,10 +1686,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1699,7 +1700,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1711,16 +1712,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1746,13 +1747,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -1770,19 +1771,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -1802,21 +1803,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1828,16 +1829,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1887,25 +1888,25 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -1919,14 +1920,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1945,16 +1946,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2004,7 +2005,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2022,7 +2023,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2036,10 +2037,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2062,13 +2063,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2107,17 +2108,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2129,7 +2130,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -2149,13 +2150,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -2165,7 +2166,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2177,13 +2178,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2234,7 +2235,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2243,10 +2244,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2266,10 +2267,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2280,7 +2281,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2292,13 +2293,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2349,13 +2350,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -2367,7 +2368,7 @@
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2381,21 +2382,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2407,17 +2408,15 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -2454,19 +2453,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2478,13 +2477,13 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -2498,10 +2497,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2509,10 +2508,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2524,16 +2523,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2541,7 +2540,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2583,13 +2582,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2601,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -2615,10 +2614,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2629,7 +2628,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2641,13 +2640,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2698,25 +2697,25 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -2730,14 +2729,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2750,22 +2749,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>171</v>
@@ -2829,13 +2828,13 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -2872,7 +2871,7 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>174</v>
@@ -2944,7 +2943,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>177</v>
@@ -2975,10 +2974,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2987,7 +2986,7 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>182</v>
@@ -3050,16 +3049,16 @@
         <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>185</v>
@@ -3093,7 +3092,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3170,13 +3169,13 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>192</v>
@@ -3210,7 +3209,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3285,13 +3284,13 @@
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>192</v>
@@ -3334,7 +3333,7 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>201</v>
@@ -3408,7 +3407,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>208</v>
@@ -3417,7 +3416,7 @@
         <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>75</v>
@@ -3442,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3451,7 +3450,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>211</v>
@@ -3517,13 +3516,13 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>214</v>
@@ -3554,22 +3553,22 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>220</v>
@@ -3631,16 +3630,16 @@
         <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>226</v>
@@ -3674,7 +3673,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3686,7 +3685,7 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>230</v>
@@ -3751,13 +3750,13 @@
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>233</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:15:19+00:00</t>
+    <t>2024-05-29T11:27:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:27:53+00:00</t>
+    <t>2024-05-29T11:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T11:39:51+00:00</t>
+    <t>2025-03-27T21:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T21:37:45+00:00</t>
+    <t>2025-10-16T20:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -582,7 +582,7 @@
     <t>AppointmentResponse.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <t>Role of participant in encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -676,7 +676,7 @@
     <t>AppointmentResponse.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1053,17 +1053,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.92578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1072,27 +1072,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.94921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="100.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.08984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="91.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:19:25+00:00</t>
+    <t>2025-10-16T20:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T20:37:15+00:00</t>
+    <t>2025-10-17T19:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:50:01+00:00</t>
+    <t>2025-10-17T19:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T19:53:44+00:00</t>
+    <t>2025-10-17T20:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:15:52+00:00</t>
+    <t>2025-10-17T20:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://example.org/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:41:05+00:00</t>
+    <t>2025-10-17T20:48:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://example.org/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}shortnotice-inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://example.org/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T20:48:12+00:00</t>
+    <t>2025-10-31T06:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
